--- a/xlsx/デザイン_ログイン画面.xlsx
+++ b/xlsx/デザイン_ログイン画面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\register_site\git\register_site\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="26955" windowHeight="13230"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="26952" windowHeight="13236" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
@@ -57,6 +62,101 @@
     <rPh sb="0" eb="2">
       <t>コウリュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索窓</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール編集画面</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#話題を検索</t>
+    <rPh sb="1" eb="3">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過時間</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿欄</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>つぶやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -293,15 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -320,15 +411,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,8 +627,153 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 1" descr="http://www.mark-sign.net/download01/data02/twitter.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="6035040"/>
+          <a:ext cx="281940" cy="300990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="434340"/>
+          <a:ext cx="403860" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="335280"/>
+          <a:ext cx="1272540" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -556,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,54 +1061,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AK31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="41" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -858,105 +1117,105 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="22"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="19"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="22"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="24"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="21"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -994,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1031,7 +1290,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1066,7 +1325,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="14"/>
     </row>
-    <row r="10" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1101,7 +1360,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="14"/>
     </row>
-    <row r="11" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1138,7 +1397,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1173,7 +1432,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="14"/>
     </row>
-    <row r="13" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1208,7 +1467,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="14"/>
     </row>
-    <row r="14" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1243,7 +1502,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="14"/>
     </row>
-    <row r="15" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1280,7 +1539,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="14"/>
     </row>
-    <row r="16" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1315,7 +1574,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="14"/>
     </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1350,7 +1609,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="14"/>
     </row>
-    <row r="18" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1372,11 +1631,11 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -1387,7 +1646,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1422,7 +1681,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1457,7 +1716,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="14"/>
     </row>
-    <row r="21" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1492,7 +1751,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="14"/>
     </row>
-    <row r="22" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1527,7 +1786,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="14"/>
     </row>
-    <row r="23" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1562,7 +1821,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="14"/>
     </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1597,7 +1856,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="14"/>
     </row>
-    <row r="25" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1632,7 +1891,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1667,7 +1926,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="14"/>
     </row>
-    <row r="27" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1702,7 +1961,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="14"/>
     </row>
-    <row r="28" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1740,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1777,7 +2036,7 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1811,7 +2070,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="4:37" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:37" x14ac:dyDescent="0.2">
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1858,14 +2117,1072 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D1:AK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="41" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="T1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="W4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="13"/>
+    </row>
+    <row r="5" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="13"/>
+    </row>
+    <row r="6" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="13"/>
+    </row>
+    <row r="7" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="4"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="14"/>
+    </row>
+    <row r="9" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="14"/>
+    </row>
+    <row r="10" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="14"/>
+    </row>
+    <row r="11" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="14"/>
+    </row>
+    <row r="12" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="14"/>
+    </row>
+    <row r="13" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="14"/>
+    </row>
+    <row r="14" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="14"/>
+    </row>
+    <row r="15" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="14"/>
+    </row>
+    <row r="16" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="14"/>
+    </row>
+    <row r="17" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="14"/>
+    </row>
+    <row r="18" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="14"/>
+    </row>
+    <row r="19" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="14"/>
+    </row>
+    <row r="20" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="14"/>
+    </row>
+    <row r="21" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="14"/>
+    </row>
+    <row r="23" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="14"/>
+    </row>
+    <row r="24" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="14"/>
+    </row>
+    <row r="25" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="14"/>
+    </row>
+    <row r="26" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="14"/>
+    </row>
+    <row r="28" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="15"/>
+    </row>
+    <row r="30" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="15"/>
+    </row>
+    <row r="31" spans="4:37" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="AJ3:AO31">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1875,7 +3192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
